--- a/Magic Card Spreadsheet.xlsx
+++ b/Magic Card Spreadsheet.xlsx
@@ -8,31 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dres2\Documents\GitHub\MTG-Database-and-Card-Pricer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0381731-DBA9-4B7B-9B5D-05C058710FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A707BD11-9F3E-4BAF-A937-B59C0F6239C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23385" yWindow="4485" windowWidth="21600" windowHeight="11295" xr2:uid="{590B0900-92CE-4675-9B03-7AD18E0A1229}"/>
+    <workbookView xWindow="-18585" yWindow="1335" windowWidth="17970" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mtg_cards" sheetId="1" r:id="rId1"/>
     <sheet name="decks" sheetId="2" r:id="rId2"/>
     <sheet name="wishlist" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -48,223 +33,382 @@
     <t>set_name</t>
   </si>
   <si>
+    <t>foil</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
+    <t>copies</t>
+  </si>
+  <si>
+    <t>Nath of the Gilt-Leaf</t>
+  </si>
+  <si>
+    <t>Commander 2016</t>
+  </si>
+  <si>
+    <t>Mind Twist</t>
+  </si>
+  <si>
+    <t>Revised Edition</t>
+  </si>
+  <si>
+    <t>Freyalise, Llanowar's Fury</t>
+  </si>
+  <si>
+    <t>Commander Anthology</t>
+  </si>
+  <si>
+    <t>Wirewood Channeler</t>
+  </si>
+  <si>
+    <t>Legions</t>
+  </si>
+  <si>
+    <t>Thoughtseize</t>
+  </si>
+  <si>
+    <t>Double Masters</t>
+  </si>
+  <si>
+    <t>Elderfang Venom</t>
+  </si>
+  <si>
+    <t>Kaldheim Commander</t>
+  </si>
+  <si>
+    <t>Llanowar Elves</t>
+  </si>
+  <si>
+    <t>Fifth Edition</t>
+  </si>
+  <si>
+    <t>Wirewood Lodge</t>
+  </si>
+  <si>
+    <t>Onslaught</t>
+  </si>
+  <si>
+    <t>Patriarch's Bidding</t>
+  </si>
+  <si>
+    <t>Skeletal Scrying</t>
+  </si>
+  <si>
+    <t>Odyssey</t>
+  </si>
+  <si>
+    <t>Lathril, Blade of the Elves</t>
+  </si>
+  <si>
+    <t>Craterhoof Behemoth</t>
+  </si>
+  <si>
+    <t>Modern Masters 2017 Edition</t>
+  </si>
+  <si>
+    <t>Woodland Cemetery</t>
+  </si>
+  <si>
+    <t>Dominaria</t>
+  </si>
+  <si>
+    <t>Gilt-Leaf Palace</t>
+  </si>
+  <si>
+    <t>Mystery Booster</t>
+  </si>
+  <si>
+    <t>Bloodstained Mire</t>
+  </si>
+  <si>
+    <t>Khans of Tarkir</t>
+  </si>
+  <si>
+    <t>Akroma's Memorial</t>
+  </si>
+  <si>
+    <t>Magic 2013</t>
+  </si>
+  <si>
+    <t>Arcane Signet</t>
+  </si>
+  <si>
+    <t>Commander Legends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIX CARD </t>
+  </si>
+  <si>
+    <t>Regrowth</t>
+  </si>
+  <si>
+    <t>Masters 25</t>
+  </si>
+  <si>
+    <t>Skullclamp</t>
+  </si>
+  <si>
+    <t>Commander 2020</t>
+  </si>
+  <si>
+    <t>Birchlore Rangers</t>
+  </si>
+  <si>
+    <t>Devoted Druid</t>
+  </si>
+  <si>
+    <t>Shadowmoor</t>
+  </si>
+  <si>
+    <t>Worldly Tutor</t>
+  </si>
+  <si>
+    <t>Classic Sixth Edition</t>
+  </si>
+  <si>
+    <t>Go for the Throat</t>
+  </si>
+  <si>
+    <t>Commander 2017</t>
+  </si>
+  <si>
+    <t>Pact of the Serpent</t>
+  </si>
+  <si>
+    <t>Quirion Elves</t>
+  </si>
+  <si>
+    <t>Invasion</t>
+  </si>
+  <si>
+    <t>Elvish Guidance</t>
+  </si>
+  <si>
+    <t>Hymn to Tourach</t>
+  </si>
+  <si>
+    <t>Eternal Masters</t>
+  </si>
+  <si>
+    <t>Hour of Devastation</t>
+  </si>
+  <si>
+    <t>Geth's Grimoire</t>
+  </si>
+  <si>
+    <t>Darksteel</t>
+  </si>
+  <si>
+    <t>Bojuka Bog</t>
+  </si>
+  <si>
+    <t>Commander 2018</t>
+  </si>
+  <si>
+    <t>Heroic Intervention</t>
+  </si>
+  <si>
+    <t>Aether Revolt</t>
+  </si>
+  <si>
+    <t>Mind Rake</t>
+  </si>
+  <si>
+    <t>Modern Horizons</t>
+  </si>
+  <si>
+    <t>Jumpstart</t>
+  </si>
+  <si>
+    <t>Syphon Mind</t>
+  </si>
+  <si>
+    <t>WPN Gateway Promos</t>
+  </si>
+  <si>
+    <t>Lightning Greaves</t>
+  </si>
+  <si>
+    <t>Bayou</t>
+  </si>
+  <si>
+    <t>Ultimate Masters</t>
+  </si>
+  <si>
+    <t>Torment</t>
+  </si>
+  <si>
+    <t>Obelisk of Urd</t>
+  </si>
+  <si>
+    <t>Night's Whisper</t>
+  </si>
+  <si>
+    <t>The Dark</t>
+  </si>
+  <si>
+    <t>Elvish Archdruid</t>
+  </si>
+  <si>
+    <t>Commander 2014</t>
+  </si>
+  <si>
+    <t>Slaughter Pact</t>
+  </si>
+  <si>
+    <t>Modern Masters</t>
+  </si>
+  <si>
+    <t>Stronghold</t>
+  </si>
+  <si>
+    <t>Elvish Harbinger</t>
+  </si>
+  <si>
+    <t>Lorwyn</t>
+  </si>
+  <si>
+    <t>Heritage Druid</t>
+  </si>
+  <si>
+    <t>Gaea's Cradle</t>
+  </si>
+  <si>
+    <t>Urza's Saga</t>
+  </si>
+  <si>
+    <t>Waste Not</t>
+  </si>
+  <si>
+    <t>Mind Shatter</t>
+  </si>
+  <si>
+    <t>Magic 2010</t>
+  </si>
+  <si>
+    <t>Sol Ring</t>
+  </si>
+  <si>
+    <t>Crippling Fear</t>
+  </si>
+  <si>
+    <t>Kaldheim</t>
+  </si>
+  <si>
+    <t>Megrim</t>
+  </si>
+  <si>
+    <t>Tenth Edition</t>
+  </si>
+  <si>
+    <t>Sadistic Hypnotist</t>
+  </si>
+  <si>
+    <t>Dual Decks Izzet vs Golgari</t>
+  </si>
+  <si>
+    <t>Tainted Wood</t>
+  </si>
+  <si>
+    <t>Twilight Mire</t>
+  </si>
+  <si>
+    <t>Llanowar Wastes</t>
+  </si>
+  <si>
+    <t>Magic Origins</t>
+  </si>
+  <si>
+    <t>Tempest</t>
+  </si>
+  <si>
+    <t>Command Tower</t>
+  </si>
+  <si>
+    <t>Yavimaya, Cradle of Growth</t>
+  </si>
+  <si>
+    <t>Modern Horizons 2</t>
+  </si>
+  <si>
+    <t>Coat of Arms</t>
+  </si>
+  <si>
+    <t>Dual Decks Mind vs Might</t>
+  </si>
+  <si>
+    <t>Dark Deal</t>
+  </si>
+  <si>
+    <t>Fate Reforged</t>
+  </si>
+  <si>
+    <t>Assassin's Trophy</t>
+  </si>
+  <si>
+    <t>Guilds of Ravnica</t>
+  </si>
+  <si>
+    <t>Return to Ravnica</t>
+  </si>
+  <si>
+    <t>Liliana's Caress</t>
+  </si>
+  <si>
+    <t>Magic 2011</t>
+  </si>
+  <si>
+    <t>Fauna Shaman</t>
+  </si>
+  <si>
+    <t>Parallel Lives</t>
+  </si>
+  <si>
+    <t>Innistrad</t>
+  </si>
+  <si>
+    <t>Overgrown Tomb</t>
+  </si>
+  <si>
+    <t>Dismember</t>
+  </si>
+  <si>
+    <t>New Phyrexia</t>
+  </si>
+  <si>
+    <t>Woodland Chasm</t>
+  </si>
+  <si>
+    <t>Verdant Catacombs</t>
+  </si>
+  <si>
+    <t>Windswept Heath</t>
+  </si>
+  <si>
+    <t>Demonic Tutor</t>
+  </si>
+  <si>
+    <t>Inscription of Ruin</t>
+  </si>
+  <si>
+    <t>Zendikar Rising</t>
+  </si>
+  <si>
+    <t>Krosan Grip</t>
+  </si>
+  <si>
     <t>deck_number</t>
   </si>
   <si>
     <t>deck_name</t>
   </si>
   <si>
-    <t>Nath of the Gilt-Leaf</t>
-  </si>
-  <si>
-    <t>Commander 2016</t>
-  </si>
-  <si>
-    <t>foil</t>
-  </si>
-  <si>
-    <t>Mind Twist</t>
-  </si>
-  <si>
-    <t>Revised Edition</t>
-  </si>
-  <si>
-    <t>Commander Anthology</t>
-  </si>
-  <si>
-    <t>Wirewood Channeler</t>
-  </si>
-  <si>
-    <t>Legions</t>
-  </si>
-  <si>
-    <t>Thoughtseize</t>
-  </si>
-  <si>
-    <t>Double Masters</t>
-  </si>
-  <si>
-    <t>Kaldheim Commander</t>
-  </si>
-  <si>
-    <t>Llanowar Elves</t>
-  </si>
-  <si>
-    <t>Fifth Edition</t>
-  </si>
-  <si>
-    <t>Wirewood Lodge</t>
-  </si>
-  <si>
-    <t>Onslaught</t>
-  </si>
-  <si>
-    <t>Patriarch's Bidding</t>
-  </si>
-  <si>
-    <t>Skeletal Scrying</t>
-  </si>
-  <si>
-    <t>Odyssey</t>
-  </si>
-  <si>
-    <t>Lathril, Blade of the Elves</t>
-  </si>
-  <si>
-    <t>Craterhoof Behemoth</t>
-  </si>
-  <si>
-    <t>copies</t>
-  </si>
-  <si>
-    <t>Woodland Cemetery</t>
-  </si>
-  <si>
-    <t>Dominaria</t>
-  </si>
-  <si>
-    <t>Gilt-Leaf Palace</t>
-  </si>
-  <si>
-    <t>Bloodstained Mire</t>
-  </si>
-  <si>
-    <t>Khans of Tarkir</t>
-  </si>
-  <si>
-    <t>Akroma's Memorial</t>
-  </si>
-  <si>
-    <t>Magic 2013</t>
-  </si>
-  <si>
-    <t>Arcane Signet</t>
-  </si>
-  <si>
-    <t>Regrowth</t>
-  </si>
-  <si>
-    <t>Masters 25</t>
-  </si>
-  <si>
-    <t>Skullclamp</t>
-  </si>
-  <si>
-    <t>Commander 2020</t>
-  </si>
-  <si>
-    <t>Birchlore Rangers</t>
-  </si>
-  <si>
-    <t>Devoted Druid</t>
-  </si>
-  <si>
-    <t>Shadowmoor</t>
-  </si>
-  <si>
-    <t>Worldly Tutor</t>
-  </si>
-  <si>
-    <t>Go for the Throat</t>
-  </si>
-  <si>
-    <t>Commander 2017</t>
-  </si>
-  <si>
-    <t>Quirion Elves</t>
-  </si>
-  <si>
-    <t>Invasion</t>
-  </si>
-  <si>
-    <t>Elvish Guidance</t>
-  </si>
-  <si>
-    <t>Hymn to Tourach</t>
-  </si>
-  <si>
-    <t>Eternal Masters</t>
-  </si>
-  <si>
-    <t>Torment of Hailfaire</t>
-  </si>
-  <si>
-    <t>Hour of Devastation</t>
-  </si>
-  <si>
-    <t>Geth's Grimoire</t>
-  </si>
-  <si>
-    <t>Darksteel</t>
-  </si>
-  <si>
-    <t>Commander 2018</t>
-  </si>
-  <si>
-    <t>Bojuka Bog</t>
-  </si>
-  <si>
-    <t>Fyndhorn Evles</t>
-  </si>
-  <si>
-    <t>Commander Legends</t>
-  </si>
-  <si>
-    <t>Heroic Intervention</t>
-  </si>
-  <si>
-    <t>Aether Revolt</t>
-  </si>
-  <si>
-    <t>Mind Rake</t>
-  </si>
-  <si>
-    <t>Modern Horizons</t>
-  </si>
-  <si>
-    <t>Tinybones, Trinket Theif</t>
-  </si>
-  <si>
-    <t>Jumpstart</t>
-  </si>
-  <si>
-    <t>Syphon Mind</t>
-  </si>
-  <si>
-    <t>WPN Gateway Promos</t>
-  </si>
-  <si>
-    <t>Lightning Greaves</t>
-  </si>
-  <si>
-    <t>Bayou</t>
-  </si>
-  <si>
-    <t>Maelstorm Pulse</t>
-  </si>
-  <si>
-    <t>Ultimate Masters</t>
-  </si>
-  <si>
-    <t>Insideous Dreams</t>
-  </si>
-  <si>
-    <t>Torment</t>
-  </si>
-  <si>
-    <t>Obelisk of Urd</t>
-  </si>
-  <si>
-    <t>Magic 2015</t>
-  </si>
-  <si>
-    <t>Night's Whisper</t>
+    <t>goes_in</t>
   </si>
   <si>
     <t>Diabolic Intent</t>
@@ -273,208 +417,49 @@
     <t>Battlebond</t>
   </si>
   <si>
-    <t>Urgborg, Tomb of Yawgmoth</t>
-  </si>
-  <si>
-    <t>Elves of Deep Shaddow</t>
-  </si>
-  <si>
-    <t>The Dark</t>
-  </si>
-  <si>
-    <t>Elvish Archdruid</t>
-  </si>
-  <si>
-    <t>Commander 2014</t>
-  </si>
-  <si>
-    <t>Slaughter Pact</t>
-  </si>
-  <si>
-    <t>Modern Masters</t>
-  </si>
-  <si>
-    <t>Bottemless Pit</t>
-  </si>
-  <si>
-    <t>Stronghold</t>
-  </si>
-  <si>
-    <t>Elvish Harbinger</t>
-  </si>
-  <si>
-    <t>Lorwyn</t>
-  </si>
-  <si>
-    <t>Heritage Druid</t>
-  </si>
-  <si>
-    <t>Eldarazi Monument</t>
-  </si>
-  <si>
-    <t>Gaea's Cradle</t>
-  </si>
-  <si>
-    <t>Urza's Saga</t>
-  </si>
-  <si>
-    <t>Waste Not</t>
-  </si>
-  <si>
-    <t>Mind Shatter</t>
-  </si>
-  <si>
-    <t>Magic 2010</t>
-  </si>
-  <si>
-    <t>Sol Ring</t>
-  </si>
-  <si>
-    <t>Crippling Fear</t>
-  </si>
-  <si>
-    <t>Kaldheim</t>
-  </si>
-  <si>
-    <t>Megrim</t>
-  </si>
-  <si>
-    <t>Tenth Edition</t>
-  </si>
-  <si>
-    <t>Sadistic Hypnotist</t>
-  </si>
-  <si>
-    <t>Preist of Titania</t>
-  </si>
-  <si>
-    <t>Dual Decks Izzet vs Golgari</t>
-  </si>
-  <si>
-    <t>Tainted Wood</t>
-  </si>
-  <si>
-    <t>Twilight Mire</t>
-  </si>
-  <si>
-    <t>Llanowar Wastes</t>
-  </si>
-  <si>
-    <t>Magic Origins</t>
-  </si>
-  <si>
-    <t>Eledamri, Lord of Leaves</t>
-  </si>
-  <si>
-    <t>Tempest</t>
-  </si>
-  <si>
-    <t>Command Tower</t>
-  </si>
-  <si>
-    <t>Yavimaya, Cradle of Growth</t>
-  </si>
-  <si>
-    <t>Modern Horizons 2</t>
-  </si>
-  <si>
-    <t>Coat of Arms</t>
-  </si>
-  <si>
-    <t>goes_in</t>
-  </si>
-  <si>
-    <t>Dual Decks Mind vs Might</t>
-  </si>
-  <si>
-    <t>Dark Deal</t>
-  </si>
-  <si>
-    <t>Fate Reforged</t>
-  </si>
-  <si>
-    <t>Assassin's Trophy</t>
-  </si>
-  <si>
-    <t>Guilds of Ravnica</t>
-  </si>
-  <si>
-    <t>Deathright Shaman</t>
-  </si>
-  <si>
-    <t>Return to Ravnica</t>
-  </si>
-  <si>
-    <t>Liliana's Caress</t>
-  </si>
-  <si>
-    <t>Magic 2011</t>
-  </si>
-  <si>
-    <t>Fauna Shaman</t>
-  </si>
-  <si>
-    <t>Parallel Lives</t>
-  </si>
-  <si>
-    <t>Innistrad</t>
-  </si>
-  <si>
-    <t>Overgrown Tomb</t>
-  </si>
-  <si>
-    <t>Dismember</t>
-  </si>
-  <si>
-    <t>New Phyrexia</t>
-  </si>
-  <si>
-    <t>Woodland Chasm</t>
-  </si>
-  <si>
-    <t>Verdant Catacombs</t>
-  </si>
-  <si>
-    <t>Windswept Heath</t>
-  </si>
-  <si>
-    <t>Undergrowth Statium-extended</t>
-  </si>
-  <si>
-    <t>Demonic Tutor</t>
-  </si>
-  <si>
-    <t>Inscription of Ruin</t>
-  </si>
-  <si>
-    <t>Zendikar Rising</t>
-  </si>
-  <si>
-    <t>Krosan Grip</t>
-  </si>
-  <si>
-    <t>Commander 2013</t>
-  </si>
-  <si>
-    <t>Freyalise, Llanowar's Fury</t>
-  </si>
-  <si>
-    <t>Elderfang Venom</t>
-  </si>
-  <si>
-    <t>Modern Masters 2017 Edition</t>
-  </si>
-  <si>
-    <t>Mystery Booster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIX CARD </t>
-  </si>
-  <si>
-    <t>Classic Sixth Edition</t>
-  </si>
-  <si>
-    <t>Pact of the Serpent</t>
+    <t>Torment of Hailfire</t>
+  </si>
+  <si>
+    <t>Fyndhorn Elves</t>
+  </si>
+  <si>
+    <t>Tinybones, Trinket Thief</t>
+  </si>
+  <si>
+    <t>Insidious Dreams</t>
+  </si>
+  <si>
+    <t>Magic 2015 Core Set</t>
+  </si>
+  <si>
+    <t>Priest of Titania</t>
+  </si>
+  <si>
+    <t>Urborg, Tomb of Yawgmoth</t>
+  </si>
+  <si>
+    <t>Elves of Deep Shadow</t>
+  </si>
+  <si>
+    <t>Bottomless Pit</t>
+  </si>
+  <si>
+    <t>Eldrazi Monument</t>
+  </si>
+  <si>
+    <t>Eladamri, Lord of Leaves</t>
+  </si>
+  <si>
+    <t>Deathrite Shaman</t>
+  </si>
+  <si>
+    <t>Undergrowth Stadium-extended</t>
+  </si>
+  <si>
+    <t>Commander 2013 Edition</t>
+  </si>
+  <si>
+    <t>Maelstrom Pulse</t>
   </si>
 </sst>
 </file>
@@ -828,11 +813,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA742BDA-BBB2-492E-89DE-A8B773D79A0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,16 +838,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -875,15 +860,15 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -910,213 +895,213 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -1124,34 +1109,34 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -1159,7 +1144,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -1167,23 +1152,23 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>
@@ -1194,76 +1179,76 @@
         <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -1271,31 +1256,31 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
@@ -1303,39 +1288,39 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s">
         <v>72</v>
@@ -1343,170 +1328,170 @@
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C68" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C79" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C42BEE3-248C-4DB9-9AEC-25E6DDF60B79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1530,10 +1515,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1542,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FD453A-C847-4518-BB1C-E88F239EE2CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1563,15 +1548,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
